--- a/public/uploads/admin/AdminInfo.xlsx
+++ b/public/uploads/admin/AdminInfo.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
-    <t>教师基本情况表</t>
+    <t>教师信息批量录入表</t>
   </si>
   <si>
     <t>说明：1、不要修改表结构；2、在绿色区域添加数据；3、添加行格式要与绿色位置一致;4、不完整的信息会被过滤掉且没有提示。</t>
@@ -485,10 +485,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="###\ ####\ ####"/>
   </numFmts>
@@ -509,7 +509,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,29 +546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,22 +572,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,8 +606,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,17 +638,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,55 +686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +710,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,37 +818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,37 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,19 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,16 +903,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,44 +943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,11 +969,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,16 +1019,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,10 +1040,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,100 +1058,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,7 +1564,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1677,7 +1677,7 @@
         <v>31200</v>
       </c>
       <c r="F4" s="16">
-        <v>13190180350</v>
+        <v>13190180000</v>
       </c>
       <c r="G4" s="15">
         <v>40057</v>
@@ -4255,8 +4255,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5:D6 D7:D154">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5:D154">
       <formula1>xingbie</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5:H6 H7:H154">
@@ -4265,8 +4265,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5:I6 I7:I154">
       <formula1>zhicheng</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C154">
+      <formula1>COUNTIF($C$5:$C$154,$C5)=1</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 L5:L6 L7:L154">
       <formula1>xueli</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F154">
+      <formula1>COUNTIF($F$5:$F$154,$F5)=1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
